--- a/src/test/resources/testdata/opencarttestdata.xlsx
+++ b/src/test/resources/testdata/opencarttestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E00BBE2-18FF-4531-9A39-DA878FFF5BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364915EA-504E-4298-83F6-9A79BA8D38C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
